--- a/biology/Botanique/Duupa_(peuple)/Duupa_(peuple).xlsx
+++ b/biology/Botanique/Duupa_(peuple)/Duupa_(peuple).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Duupa constituent une population d'Afrique centrale vivant dans le massif de Poli au nord du Cameroun. Leur nombre est estimé à 5 000[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Duupa constituent une population d'Afrique centrale vivant dans le massif de Poli au nord du Cameroun. Leur nombre est estimé à 5 000.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Langue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur langue ou dialecte est le duupa[2], une langue adamawa-oubanguienne.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur langue ou dialecte est le duupa, une langue adamawa-oubanguienne.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Système économique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant tout agriculteurs, ils cultivent le sorgho (Sorghum bicolor), en veillant à maintenir une grande diversité variétale (40 variétés), notamment grâce à des échanges de semences avec leurs parents et voisins[3]. Cette dynamique de diversité génétique est donc directement liée aux liens sociaux.
-Les céréales sont l'aliment de base des Duupa[4] et leur mode d'alimentation a fait l'objet de plusieurs études scientifiques.
-Le système économique des Duupa est basé sur la pratique de l'agriculture, mais la chasse continue d'y être pratiquée pendant la saison sèche, morte-saison des travaux agricoles[5]. Le produit de la chasse (notamment des rongeurs) contribue peu à l'alimentation, mais l'activité reste valorisée en raison de son caractère ludique et de sa forte portée symbolique.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant tout agriculteurs, ils cultivent le sorgho (Sorghum bicolor), en veillant à maintenir une grande diversité variétale (40 variétés), notamment grâce à des échanges de semences avec leurs parents et voisins. Cette dynamique de diversité génétique est donc directement liée aux liens sociaux.
+Les céréales sont l'aliment de base des Duupa et leur mode d'alimentation a fait l'objet de plusieurs études scientifiques.
+Le système économique des Duupa est basé sur la pratique de l'agriculture, mais la chasse continue d'y être pratiquée pendant la saison sèche, morte-saison des travaux agricoles. Le produit de la chasse (notamment des rongeurs) contribue peu à l'alimentation, mais l'activité reste valorisée en raison de son caractère ludique et de sa forte portée symbolique.
 </t>
         </is>
       </c>
